--- a/src/SystemDynamics.xlsx
+++ b/src/SystemDynamics.xlsx
@@ -672,11 +672,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" cm="1">
-        <f t="array" ref="B1">[3]!syClock(,15)</f>
+        <f t="array" ref="B1">syClock(,15)</f>
         <v>15</v>
       </c>
       <c r="E1" s="1" t="str" cm="1">
-        <f t="array" ref="E1">[3]!syOutcome(B4,B1,3)</f>
+        <f t="array" ref="E1">syOutcome(B4,B1,3)</f>
         <v>{{B4}}</v>
       </c>
     </row>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" cm="1">
-        <f t="array" ref="B2">[3]!syStock(0,"Rate",0,0,1000,B1)</f>
+        <f t="array" ref="B2">syStock(0,"Rate",0,0,1000,B1)</f>
         <v>8.0594802604848165E-2</v>
       </c>
       <c r="E2"/>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" cm="1">
-        <f t="array" ref="B3">[3]!syStockOutput(B2,3)</f>
+        <f t="array" ref="B3">syStockOutput(B2,3)</f>
         <v>0.13288950978860706</v>
       </c>
       <c r="E3"/>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" cm="1">
-        <f t="array" ref="B4">[3]!syStock(B3,0,0,0,0,B1)</f>
+        <f t="array" ref="B4">syStock(B3,0,0,0,0,B1)</f>
         <v>999.91940519739512</v>
       </c>
       <c r="E4"/>
@@ -751,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" cm="1">
-        <f t="array" ref="B8">[3]!syLoop("Rate",B7)</f>
+        <f t="array" ref="B8">syLoop("Rate",B7)</f>
         <v>5.0174643738896033E-2</v>
       </c>
       <c r="E8"/>
